--- a/주정통 정리.xlsx
+++ b/주정통 정리.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwonhyunjoon/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwonhyunjoon/Desktop/GITHUB_REPO/Tomato_Infra_Vulchecker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE7211C-9773-FC40-95D6-69827FCB0D89}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F56F942-D494-FA4A-90FE-0DED2A721DC0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56340" yWindow="-7800" windowWidth="28460" windowHeight="28800" xr2:uid="{2442F1EB-9AE2-3A4F-8D11-0DC297CE7A10}"/>
+    <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" xr2:uid="{2442F1EB-9AE2-3A4F-8D11-0DC297CE7A10}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIX" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="402">
   <si>
     <t>계정관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1440,6 +1440,114 @@
   </si>
   <si>
     <t>1. find / -type f -name ".*" 2&gt;/dev/null와 find / -type d -name ".*" 2&gt;/dev/null 결과가 centos 기본 list에 없다면 취약이며 개발자의 확인 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. systemctl status telnet.socket died 문구가 있거나, 에러가 나오면 양호 - telnet
+2. systemctl status vsftpd died 문구가 있거나, 에러가 나오면 양호 - vsftp
+3. systemctl status proftpd died 문구가 있거나, 에러가 나오면 양호 - proftp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. systemctl status telnet.socket
+2. systemctl status vsftpd
+3. systemctl status proftpd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. systemctl status vsftpd died 문구가 있거나, 에러가 나오면 양호 - vsftp
+2. systemctl status proftpd died 문구가 있거나, 에러가 나오면 양호 - proftp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. systemctl status vsftpd
+2. systemctl status proftpd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. cat /etc/passwd 내 ftp라는 게정의 마지막 값(사용 쉘)이 /bin/false 이거나 /sbin/nologin 이어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. find / -type f \( -name "*ftpusers" -o -name "*user_list" \) -exec ls -l {} \; 2&gt;/dev/null 결과가 없거나, 소유자가 root이며 권한이 640 이하여야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. find / -type f \( -name "*ftpusers" -o -name "*user_list" \) -exec ls -l {} \; 2&gt;/dev/null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. find /etc/ -type f \( -name "*ftpusers" -o -name "*user_list" \) -exec grep -riE "root" {} \; 2&gt;/dev/null | grep -v "#"
+2. find /etc/ -type f -name "proftpd.conf" -exec grep -riE "RootLogin.*on" {} \; 2&gt;/dev/null | grep -v "#"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. find /etc/ -type f \( -name "*ftpusers" -o -name "*user_list" \) -exec grep -riE "root" {} \; 2&gt;/dev/null | grep -v "#" 의 결과가 있어야 양호 
+2. find /etc/ -type f -name "proftpd.conf" -exec grep -riE "RootLogin.*on" {} \; 2&gt;/dev/null | grep -v "#" 의 결과가 없어야 양호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ls -l /etc/at.allow /etc/at.deny 2&gt;/dev/null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ls -l /etc/at.allow /etc/at.deny 2&gt;/dev/null 의 결과가 없거나, 소유자가 root 이며 권한이 640 이하여야 양호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. systemctl status snmpd 2&gt;/dev/null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. systemctl start snmpd 2&gt;/dev/null 의 값이 없거나, 있어도 안에 내용중 died 또는 inactive가 있다면 양호함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. cat /etc/snmp/snmpd.conf 2&gt;/dev/null | grep -v "#" | grep -iE "public|private"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. cat /etc/snmp/snmpd.conf 2&gt;/dev/null | grep -v "#" | grep -iE "public|private" 값이 없어야 양호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. /etc/motd
+2. /etc/issue.net
+3. /etc/vsftpd/vsftpd.conf
+4. /etc/mail/sendmail.cf
+5. /etc/named.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,5 직접 내용 확인해야함 
+3. ftpd_banner를 확인해야함 
+4. smtp greetingmessage를 확인해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. /etc/exports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. /etc/exports의 소유자가 root이며 644 이하의 권한이면 양호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. /etc/mail/sendmail.cf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. /etc/mail/sendmail.cf 내 PrivacyOptions에 noexpn과 novrfy가 있어야 양호 또는 smtp  서비스가 내려가 있으면 양호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. /etc/syslog.conf -6버전 
+2. /etc/rsyslog.conf - 이후버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1. /etc/syslog.conf 에 *.info;mail.none;authprive.none;cron.none, authpriv.*, mail.* cron.* *.alert, *.emerg 내용이 있다면 양호 또는 인터뷰를 통해 로그를 어떤식으로 관리하는지 확인 필요
+2. /etc/rsyslog.conf 에 *.info;mail.none;authprive.none;cron.none, authpriv.*, mail.* cron.* *.alert, *.emerg 내용이 있다면 양호 또는 인터뷰를 통해 로그를 어떤식으로 관리하는지 확인 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1900,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DAFE0C-BADF-DB4D-B49D-018A40443948}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C50" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3103,7 +3211,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" ht="114">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -3116,8 +3224,14 @@
       <c r="D62" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="E62" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="76">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -3130,8 +3244,14 @@
       <c r="D63" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="E63" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="38">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -3144,8 +3264,14 @@
       <c r="D64" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="57">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -3158,8 +3284,14 @@
       <c r="D65" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="95">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3304,14 @@
       <c r="D66" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="38">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -3186,8 +3324,14 @@
       <c r="D67" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="38">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -3200,8 +3344,14 @@
       <c r="D68" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="38">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3214,8 +3364,14 @@
       <c r="D69" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="95">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -3228,8 +3384,14 @@
       <c r="D70" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="19">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -3242,8 +3404,14 @@
       <c r="D71" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="38">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -3256,8 +3424,14 @@
       <c r="D72" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -3271,7 +3445,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:6" ht="114">
       <c r="A74" t="s">
         <v>263</v>
       </c>
@@ -3283,6 +3457,12 @@
       </c>
       <c r="D74" t="s">
         <v>267</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/주정통 정리.xlsx
+++ b/주정통 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwonhyunjoon/Desktop/GITHUB_REPO/Tomato_Infra_Vulchecker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F56F942-D494-FA4A-90FE-0DED2A721DC0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7963F8-FEE7-3742-9B36-0D99C0C0D6B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" xr2:uid="{2442F1EB-9AE2-3A4F-8D11-0DC297CE7A10}"/>
+    <workbookView xWindow="51340" yWindow="-8620" windowWidth="20660" windowHeight="21600" xr2:uid="{2442F1EB-9AE2-3A4F-8D11-0DC297CE7A10}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIX" sheetId="1" r:id="rId1"/>
@@ -1605,7 +1605,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1615,12 +1615,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1657,7 +1651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1667,28 +1661,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2008,1460 +1993,1457 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DAFE0C-BADF-DB4D-B49D-018A40443948}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="114.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="3"/>
+    <col min="5" max="5" width="55" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="114.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="57">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="76">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="190">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="38">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="38">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="38">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="76">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="38">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="57">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="57">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="57">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="76">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="76">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="19">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="76">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="114">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="5" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="152">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="38">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="95">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="5" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="19">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:7" ht="19">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="247">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="57">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="152">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="76">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="3" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="95">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="4" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="95">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="4" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="76">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="4" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="95">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="4" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="3" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="38">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="4" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="3" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="190">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="38">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="3" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="38">
-      <c r="A49" t="s">
+      <c r="A49" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="3" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="152">
-      <c r="A50" t="s">
+      <c r="A50" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="4" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="38">
-      <c r="A51" t="s">
+      <c r="A51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="3" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="38">
-      <c r="A52" t="s">
+      <c r="A52" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="4" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="38">
-      <c r="A53" t="s">
+      <c r="A53" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="3" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="114">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="4" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="95">
-      <c r="A55" t="s">
+      <c r="A55" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="57">
-      <c r="A56" t="s">
+      <c r="A56" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="4" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="57">
-      <c r="A57" t="s">
+      <c r="A57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="4" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="38">
-      <c r="A58" t="s">
+      <c r="A58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="57">
-      <c r="A59" t="s">
+      <c r="A59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="4" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="38">
-      <c r="A60" t="s">
+      <c r="A60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="4" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="57">
-      <c r="A61" t="s">
+      <c r="A61" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="4" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="114">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="4" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="76">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="4" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="38">
-      <c r="A64" t="s">
+      <c r="A64" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="4" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="57">
-      <c r="A65" t="s">
+      <c r="A65" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="4" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="95">
-      <c r="A66" t="s">
+      <c r="A66" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="4" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="38">
-      <c r="A67" t="s">
+      <c r="A67" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="4" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="38">
-      <c r="A68" t="s">
+      <c r="A68" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="4" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="38">
-      <c r="A69" t="s">
+      <c r="A69" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="4" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="95">
-      <c r="A70" t="s">
+      <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="4" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="19">
-      <c r="A71" t="s">
+      <c r="A71" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="4" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="38">
-      <c r="A72" t="s">
+      <c r="A72" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="4" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" t="s">
+      <c r="A73" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="3" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="114">
-      <c r="A74" t="s">
+      <c r="A74" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="4" t="s">
         <v>400</v>
       </c>
     </row>
